--- a/git/gitnote.xlsx
+++ b/git/gitnote.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>https://github.com/shangpengyang/technical-information.git</t>
   </si>
@@ -56,6 +56,22 @@
   </si>
   <si>
     <t>附加注释提交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git remote add origin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联远程仓库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传文件至远程仓库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git push -u origin main</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -443,13 +459,13 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="40.375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -504,15 +520,27 @@
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">

--- a/git/gitnote.xlsx
+++ b/git/gitnote.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>https://github.com/shangpengyang/technical-information.git</t>
   </si>
@@ -59,19 +59,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>git remote add origin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关联远程仓库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>上传文件至远程仓库</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>git branch -M main</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择分支</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git remote add origin https://github.com/shangpengyang/technical-information.git</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联远程仓库分支</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>git push -u origin main</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git pull origin main</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从远程分支main拉去更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定本地分支master至远程分支main</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git branch --set-upstream-to=origin/main master</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git pull origin master --allow-unrelated-histories</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>允许合并不相关的历史，用于本地仓库与联机仓库关联时使用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -145,12 +177,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -456,17 +491,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.375" customWidth="1"/>
+    <col min="2" max="2" width="54.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
@@ -524,45 +559,75 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="D9" s="1"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="L11" t="s">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L12" t="s">
         <v>0</v>
       </c>
     </row>

--- a/git/gitnote.xlsx
+++ b/git/gitnote.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>https://github.com/shangpengyang/technical-information.git</t>
   </si>
@@ -104,6 +104,14 @@
   </si>
   <si>
     <t>允许合并不相关的历史，用于本地仓库与联机仓库关联时使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git commit -am</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a表示新增</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -177,7 +185,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -187,6 +195,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -494,7 +503,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -626,6 +635,18 @@
       </c>
       <c r="D10" s="1"/>
     </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="1"/>
+    </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L12" t="s">
         <v>0</v>

--- a/git/gitnote.xlsx
+++ b/git/gitnote.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>https://github.com/shangpengyang/technical-information.git</t>
   </si>
@@ -23,50 +23,66 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>命令用途</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git init</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在目录内建立本地仓库，为远程提交做准备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git add .</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将目录内所有文件添加至本地仓库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附加注释提交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传文件至远程仓库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git branch -M main</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从远程分支main拉去更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定本地分支master至远程分支main</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git commit -am</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a表示新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>git命令</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>命令用途</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>git init</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在目录内建立本地仓库，为远程提交做准备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>git add .</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>将目录内所有文件添加至本地仓库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>git commit -m ""</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>附加注释提交</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上传文件至远程仓库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>git branch -M main</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>选择分支</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -87,14 +103,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>从远程分支main拉去更新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>指定本地分支master至远程分支main</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>git branch --set-upstream-to=origin/main master</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -107,11 +115,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>git commit -am</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a表示新增</t>
+    <t>git remote -v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看远程仓库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git remote rm name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移除远程仓库链接</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -500,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection sqref="A1:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -518,13 +534,13 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -532,10 +548,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D2" s="1"/>
     </row>
@@ -544,10 +560,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -556,10 +572,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D4" s="1"/>
     </row>
@@ -568,10 +584,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -580,10 +596,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D6" s="1"/>
     </row>
@@ -592,10 +608,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D7" s="1"/>
     </row>
@@ -604,10 +620,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D8" s="1"/>
     </row>
@@ -616,10 +632,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D9" s="1"/>
     </row>
@@ -628,10 +644,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D10" s="1"/>
     </row>
@@ -640,17 +656,39 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="1"/>
       <c r="L12" t="s">
         <v>0</v>
       </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/git/gitnote.xlsx
+++ b/git/gitnote.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
     <t>https://github.com/shangpengyang/technical-information.git</t>
   </si>
@@ -23,10 +23,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>git命令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>命令用途</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>git init</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -43,15 +51,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>git commit -m ""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>附加注释提交</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>git branch -M main</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择分支</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git remote add origin https://github.com/shangpengyang/technical-information.git</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联远程仓库分支</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git push -u origin main</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>上传文件至远程仓库</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>git branch -M main</t>
+    <t>git pull origin main</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -59,10 +91,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>git branch --set-upstream-to=origin/main master</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>指定本地分支master至远程分支main</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>git pull origin master --allow-unrelated-histories</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>允许合并不相关的历史，用于本地仓库与联机仓库关联时使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>git commit -am</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -71,50 +115,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>git命令</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>git commit -m ""</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择分支</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>git remote add origin https://github.com/shangpengyang/technical-information.git</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关联远程仓库分支</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>git push -u origin main</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>git pull origin main</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>git branch --set-upstream-to=origin/main master</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>git pull origin master --allow-unrelated-histories</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>允许合并不相关的历史，用于本地仓库与联机仓库关联时使用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>git remote -v</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -128,6 +128,91 @@
   </si>
   <si>
     <t>移除远程仓库链接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git status -s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看本地仓库文件状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">git stash -u -k </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忽略其他文件，把现修改的隐藏起来，这样提交的时候就不会提交未被add的文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">git stash pop </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恢复之前忽略的文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git clean -f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除当前目录下untrack文件和文件夹， 不包括.gitignore中指定的文件和文件夹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git clean -xdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示会被删除的文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git clean -df</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除当期目录下的所有untrack的文件和文件夹(物理删除)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git reset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消本地最近一次提交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git branch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看分支名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">git log </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看提交记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git reset --hard &lt;commit_id&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回退提交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">git branch -M main
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -201,7 +286,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -212,6 +297,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -230,7 +316,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -272,7 +358,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -307,7 +393,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -516,10 +602,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D13"/>
+      <selection sqref="A1:D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -534,24 +620,24 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
+      <c r="B2" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1"/>
     </row>
@@ -560,10 +646,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -572,10 +658,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D4" s="1"/>
     </row>
@@ -584,10 +670,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -596,10 +682,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D6" s="1"/>
     </row>
@@ -608,10 +694,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D7" s="1"/>
     </row>
@@ -620,10 +706,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D8" s="1"/>
     </row>
@@ -632,10 +718,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D9" s="1"/>
     </row>
@@ -644,10 +730,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D10" s="1"/>
     </row>
@@ -656,10 +742,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D11" s="1"/>
     </row>
@@ -689,6 +775,138 @@
         <v>28</v>
       </c>
       <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/git/gitnote.xlsx
+++ b/git/gitnote.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E6E452-5FBC-43DB-A68C-E91A653252BF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
   <si>
     <t>https://github.com/shangpengyang/technical-information.git</t>
   </si>
@@ -213,13 +214,37 @@
   <si>
     <t xml:space="preserve">git branch -M main
 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">git config --list </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看git配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git config --global user.name liu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置用户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git config --global user.password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置密码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -358,7 +383,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -391,9 +416,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -426,6 +468,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -601,21 +660,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D24"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="56.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -629,7 +688,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -641,7 +700,7 @@
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -653,7 +712,7 @@
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -665,7 +724,7 @@
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -677,7 +736,7 @@
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" ht="42" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -689,7 +748,7 @@
       </c>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -701,7 +760,7 @@
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -713,7 +772,7 @@
       </c>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -725,7 +784,7 @@
       </c>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -737,7 +796,7 @@
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -749,7 +808,7 @@
       </c>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -764,7 +823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -776,7 +835,7 @@
       </c>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -788,7 +847,7 @@
       </c>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -800,7 +859,7 @@
       </c>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -812,7 +871,7 @@
       </c>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -824,7 +883,7 @@
       </c>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -836,7 +895,7 @@
       </c>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -848,7 +907,7 @@
       </c>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -860,7 +919,7 @@
       </c>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -872,7 +931,7 @@
       </c>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -884,7 +943,7 @@
       </c>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -896,7 +955,7 @@
       </c>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4" ht="28" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -907,6 +966,42 @@
         <v>12</v>
       </c>
       <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>24</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>25</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>26</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/git/gitnote.xlsx
+++ b/git/gitnote.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E6E452-5FBC-43DB-A68C-E91A653252BF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A95786E4-D8BC-4318-B404-AF5F56B13824}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="61">
   <si>
     <t>https://github.com/shangpengyang/technical-information.git</t>
   </si>
@@ -238,6 +238,26 @@
   </si>
   <si>
     <t>设置密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看本地分支</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git branch -r</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看远程分支</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git branch --set-upstream-to=origin/远程分支的名字 本地分支的名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本地分支与远程分支建立关联</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -661,16 +681,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="A27" sqref="A27:A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="56.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1003,6 +1023,42 @@
       </c>
       <c r="D27" s="1"/>
     </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>27</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>28</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>29</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/git/gitnote.xlsx
+++ b/git/gitnote.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A95786E4-D8BC-4318-B404-AF5F56B13824}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="67">
   <si>
     <t>https://github.com/shangpengyang/technical-information.git</t>
   </si>
@@ -258,13 +257,37 @@
   </si>
   <si>
     <t>本地分支与远程分支建立关联</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git fetch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载远程文件至本地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git merge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将远程分支文件与本地分支合并</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git pull</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相当于git fetch与git merge的合并</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -403,7 +426,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -436,26 +459,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -488,23 +494,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -680,21 +669,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:A30"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="56.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="76.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -708,7 +697,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -720,7 +709,7 @@
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -732,7 +721,7 @@
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -744,7 +733,7 @@
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -756,7 +745,7 @@
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:12" ht="42" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -768,7 +757,7 @@
       </c>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -780,7 +769,7 @@
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -792,7 +781,7 @@
       </c>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -804,7 +793,7 @@
       </c>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -816,7 +805,7 @@
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -828,7 +817,7 @@
       </c>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -843,7 +832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -855,7 +844,7 @@
       </c>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -867,7 +856,7 @@
       </c>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -879,7 +868,7 @@
       </c>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -891,7 +880,7 @@
       </c>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -903,7 +892,7 @@
       </c>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -915,7 +904,7 @@
       </c>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -927,7 +916,7 @@
       </c>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -939,7 +928,7 @@
       </c>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -951,7 +940,7 @@
       </c>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -963,7 +952,7 @@
       </c>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -975,7 +964,7 @@
       </c>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:4" ht="28" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -987,7 +976,7 @@
       </c>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -999,7 +988,7 @@
       </c>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -1011,7 +1000,7 @@
       </c>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -1023,7 +1012,7 @@
       </c>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -1035,7 +1024,7 @@
       </c>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -1047,7 +1036,7 @@
       </c>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -1058,6 +1047,42 @@
         <v>60</v>
       </c>
       <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A31" s="3">
+        <v>30</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A32" s="3">
+        <v>31</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A33" s="3">
+        <v>32</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D33" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/git/gitnote.xlsx
+++ b/git/gitnote.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" iterate="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="70">
   <si>
     <t>https://github.com/shangpengyang/technical-information.git</t>
   </si>
@@ -281,6 +281,18 @@
   </si>
   <si>
     <t>相当于git fetch与git merge的合并</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在git init文件夹，使用.gitingore文件可过滤提交内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git push 报错10054</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器的SSL证书没有经过第三方机构的签署 git config --global http.sslVerify "false"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -354,7 +366,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -366,6 +378,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -670,10 +685,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="D35" sqref="A1:D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1084,6 +1099,28 @@
       </c>
       <c r="D33" s="1"/>
     </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A34" s="7">
+        <v>33</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A35" s="7">
+        <v>34</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D35" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
